--- a/OIMInformationTool2/Files/nominal.xlsx
+++ b/OIMInformationTool2/Files/nominal.xlsx
@@ -19,7 +19,7 @@
     <x:t>Registro nominal</x:t>
   </x:si>
   <x:si>
-    <x:t>Recuperado el 1/2/2023 10:28:48</x:t>
+    <x:t>Recuperado el 6/2/2023 14:40:19</x:t>
   </x:si>
   <x:si>
     <x:t>ID</x:t>
@@ -122,6 +122,12 @@
   </x:si>
   <x:si>
     <x:t>JEFE/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Periodo 2                                                                                                                                                                                               </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ECUATORIANA</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -505,7 +511,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Q18"/>
+  <x:dimension ref="A1:Q83"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1320,6 +1326,3256 @@
       </x:c>
       <x:c r="P18" s="0" t="s">
         <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:17">
+      <x:c r="A19" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B19" s="2">
+        <x:v>44803</x:v>
+      </x:c>
+      <x:c r="C19" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E19" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F19" s="3">
+        <x:v>44958.6764106829</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J19" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K19" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:17">
+      <x:c r="A20" s="0">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B20" s="2">
+        <x:v>44821</x:v>
+      </x:c>
+      <x:c r="C20" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E20" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F20" s="3">
+        <x:v>44958.676421875</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J20" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K20" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O20" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P20" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:17">
+      <x:c r="A21" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B21" s="2">
+        <x:v>44827</x:v>
+      </x:c>
+      <x:c r="C21" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E21" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F21" s="3">
+        <x:v>44958.6764299421</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J21" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K21" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O21" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P21" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:17">
+      <x:c r="A22" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B22" s="2">
+        <x:v>44823</x:v>
+      </x:c>
+      <x:c r="C22" s="0">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E22" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F22" s="3">
+        <x:v>44958.676438044</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J22" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K22" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O22" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P22" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:17">
+      <x:c r="A23" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B23" s="2">
+        <x:v>44824</x:v>
+      </x:c>
+      <x:c r="C23" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E23" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F23" s="3">
+        <x:v>44958.6764461458</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J23" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K23" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N23" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O23" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P23" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:17">
+      <x:c r="A24" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B24" s="2">
+        <x:v>44825</x:v>
+      </x:c>
+      <x:c r="C24" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E24" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F24" s="3">
+        <x:v>44958.6764541667</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J24" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K24" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P24" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:17">
+      <x:c r="A25" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B25" s="2">
+        <x:v>44826</x:v>
+      </x:c>
+      <x:c r="C25" s="0">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E25" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F25" s="3">
+        <x:v>44958.6764621875</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J25" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K25" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O25" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:17">
+      <x:c r="A26" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B26" s="2">
+        <x:v>44827</x:v>
+      </x:c>
+      <x:c r="C26" s="0">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E26" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F26" s="3">
+        <x:v>44958.6764704051</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J26" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K26" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O26" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:17">
+      <x:c r="A27" s="0">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B27" s="2">
+        <x:v>44828</x:v>
+      </x:c>
+      <x:c r="C27" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E27" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F27" s="3">
+        <x:v>44958.6764785069</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J27" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K27" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P27" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:17">
+      <x:c r="A28" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B28" s="2">
+        <x:v>44829</x:v>
+      </x:c>
+      <x:c r="C28" s="0">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E28" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F28" s="3">
+        <x:v>44958.6764865741</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J28" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K28" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O28" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:17">
+      <x:c r="A29" s="0">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B29" s="2">
+        <x:v>44830</x:v>
+      </x:c>
+      <x:c r="C29" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E29" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F29" s="3">
+        <x:v>44958.6764947569</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J29" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K29" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P29" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:17">
+      <x:c r="A30" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B30" s="2">
+        <x:v>44831</x:v>
+      </x:c>
+      <x:c r="C30" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E30" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F30" s="3">
+        <x:v>44958.6765028935</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J30" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K30" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L30" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N30" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O30" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P30" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:17">
+      <x:c r="A31" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B31" s="2">
+        <x:v>44832</x:v>
+      </x:c>
+      <x:c r="C31" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E31" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F31" s="3">
+        <x:v>44958.6765110764</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J31" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K31" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N31" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O31" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:17">
+      <x:c r="A32" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B32" s="2">
+        <x:v>44803</x:v>
+      </x:c>
+      <x:c r="C32" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E32" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F32" s="3">
+        <x:v>44958.6774139236</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J32" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K32" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N32" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O32" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P32" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:17">
+      <x:c r="A33" s="0">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B33" s="2">
+        <x:v>44821</x:v>
+      </x:c>
+      <x:c r="C33" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E33" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F33" s="3">
+        <x:v>44958.6774248843</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J33" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K33" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P33" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:17">
+      <x:c r="A34" s="0">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B34" s="2">
+        <x:v>44827</x:v>
+      </x:c>
+      <x:c r="C34" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E34" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F34" s="3">
+        <x:v>44958.6774330671</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J34" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K34" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O34" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P34" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:17">
+      <x:c r="A35" s="0">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B35" s="2">
+        <x:v>44823</x:v>
+      </x:c>
+      <x:c r="C35" s="0">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E35" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F35" s="3">
+        <x:v>44958.677441169</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J35" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K35" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N35" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O35" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P35" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:17">
+      <x:c r="A36" s="0">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B36" s="2">
+        <x:v>44824</x:v>
+      </x:c>
+      <x:c r="C36" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E36" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F36" s="3">
+        <x:v>44958.6774492708</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J36" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K36" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L36" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N36" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O36" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P36" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:17">
+      <x:c r="A37" s="0">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B37" s="2">
+        <x:v>44825</x:v>
+      </x:c>
+      <x:c r="C37" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E37" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F37" s="3">
+        <x:v>44958.6774573727</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J37" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K37" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N37" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O37" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P37" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:17">
+      <x:c r="A38" s="0">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B38" s="2">
+        <x:v>44826</x:v>
+      </x:c>
+      <x:c r="C38" s="0">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E38" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F38" s="3">
+        <x:v>44958.6774654745</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J38" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K38" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M38" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N38" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P38" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:17">
+      <x:c r="A39" s="0">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B39" s="2">
+        <x:v>44827</x:v>
+      </x:c>
+      <x:c r="C39" s="0">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E39" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F39" s="3">
+        <x:v>44958.6774735764</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J39" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K39" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M39" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N39" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P39" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:17">
+      <x:c r="A40" s="0">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B40" s="2">
+        <x:v>44828</x:v>
+      </x:c>
+      <x:c r="C40" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E40" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F40" s="3">
+        <x:v>44958.6774816782</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J40" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K40" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M40" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N40" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O40" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P40" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:17">
+      <x:c r="A41" s="0">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B41" s="2">
+        <x:v>44829</x:v>
+      </x:c>
+      <x:c r="C41" s="0">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E41" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F41" s="3">
+        <x:v>44958.6774897801</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J41" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K41" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N41" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P41" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:17">
+      <x:c r="A42" s="0">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B42" s="2">
+        <x:v>44830</x:v>
+      </x:c>
+      <x:c r="C42" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E42" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F42" s="3">
+        <x:v>44958.6774979977</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J42" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K42" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N42" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O42" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P42" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:17">
+      <x:c r="A43" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B43" s="2">
+        <x:v>44831</x:v>
+      </x:c>
+      <x:c r="C43" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E43" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F43" s="3">
+        <x:v>44958.6775060995</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J43" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K43" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M43" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N43" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P43" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:17">
+      <x:c r="A44" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B44" s="2">
+        <x:v>44832</x:v>
+      </x:c>
+      <x:c r="C44" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E44" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F44" s="3">
+        <x:v>44958.6775142708</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J44" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K44" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M44" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N44" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P44" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:17">
+      <x:c r="A45" s="0">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B45" s="3">
+        <x:v>44958.6991184838</x:v>
+      </x:c>
+      <x:c r="C45" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E45" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F45" s="3">
+        <x:v>44958.6991184838</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J45" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K45" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M45" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N45" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O45" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P45" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:17">
+      <x:c r="A46" s="0">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B46" s="3">
+        <x:v>44958.6991294329</x:v>
+      </x:c>
+      <x:c r="C46" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E46" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F46" s="3">
+        <x:v>44958.6991294329</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J46" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K46" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N46" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O46" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P46" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:17">
+      <x:c r="A47" s="0">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B47" s="3">
+        <x:v>44958.6991376157</x:v>
+      </x:c>
+      <x:c r="C47" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E47" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F47" s="3">
+        <x:v>44958.6991376157</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J47" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K47" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L47" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M47" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N47" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O47" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P47" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:17">
+      <x:c r="A48" s="0">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B48" s="3">
+        <x:v>44958.6991457176</x:v>
+      </x:c>
+      <x:c r="C48" s="0">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E48" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F48" s="3">
+        <x:v>44958.6991457176</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J48" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K48" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L48" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M48" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N48" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O48" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P48" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:17">
+      <x:c r="A49" s="0">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B49" s="3">
+        <x:v>44958.6991537847</x:v>
+      </x:c>
+      <x:c r="C49" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E49" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F49" s="3">
+        <x:v>44958.6991537847</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J49" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K49" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M49" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N49" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O49" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P49" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:17">
+      <x:c r="A50" s="0">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B50" s="3">
+        <x:v>44958.6991620023</x:v>
+      </x:c>
+      <x:c r="C50" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E50" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F50" s="3">
+        <x:v>44958.6991620023</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J50" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K50" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M50" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N50" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O50" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P50" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:17">
+      <x:c r="A51" s="0">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B51" s="3">
+        <x:v>44958.6991701042</x:v>
+      </x:c>
+      <x:c r="C51" s="0">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E51" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F51" s="3">
+        <x:v>44958.6991701042</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J51" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K51" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L51" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N51" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O51" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P51" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:17">
+      <x:c r="A52" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B52" s="3">
+        <x:v>44958.6991783218</x:v>
+      </x:c>
+      <x:c r="C52" s="0">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E52" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F52" s="3">
+        <x:v>44958.6991783218</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J52" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K52" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L52" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M52" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N52" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O52" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P52" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:17">
+      <x:c r="A53" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B53" s="3">
+        <x:v>44958.6991864583</x:v>
+      </x:c>
+      <x:c r="C53" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E53" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F53" s="3">
+        <x:v>44958.6991864583</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J53" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K53" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L53" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M53" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N53" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O53" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P53" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:17">
+      <x:c r="A54" s="0">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B54" s="3">
+        <x:v>44958.6991945949</x:v>
+      </x:c>
+      <x:c r="C54" s="0">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E54" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F54" s="3">
+        <x:v>44958.6991945949</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J54" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K54" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L54" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M54" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N54" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O54" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P54" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:17">
+      <x:c r="A55" s="0">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B55" s="3">
+        <x:v>44958.6992027431</x:v>
+      </x:c>
+      <x:c r="C55" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E55" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F55" s="3">
+        <x:v>44958.6992027431</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J55" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K55" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L55" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M55" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N55" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O55" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P55" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:17">
+      <x:c r="A56" s="0">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B56" s="3">
+        <x:v>44958.6992108449</x:v>
+      </x:c>
+      <x:c r="C56" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E56" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F56" s="3">
+        <x:v>44958.6992108449</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J56" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K56" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L56" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N56" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O56" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P56" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:17">
+      <x:c r="A57" s="0">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B57" s="3">
+        <x:v>44958.6992189468</x:v>
+      </x:c>
+      <x:c r="C57" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E57" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F57" s="3">
+        <x:v>44958.6992189468</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J57" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K57" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L57" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M57" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N57" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O57" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P57" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:17">
+      <x:c r="A58" s="0">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B58" s="3">
+        <x:v>44960.5090509259</x:v>
+      </x:c>
+      <x:c r="C58" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E58" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F58" s="3">
+        <x:v>44960.5107525463</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J58" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K58" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L58" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M58" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N58" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O58" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P58" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:17">
+      <x:c r="A59" s="0">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B59" s="2">
+        <x:v>44961</x:v>
+      </x:c>
+      <x:c r="C59" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E59" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F59" s="3">
+        <x:v>44960.5107641551</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J59" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K59" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L59" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M59" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N59" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O59" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P59" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:17">
+      <x:c r="A60" s="0">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B60" s="2">
+        <x:v>44962</x:v>
+      </x:c>
+      <x:c r="C60" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E60" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F60" s="3">
+        <x:v>44960.5107728009</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J60" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K60" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L60" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M60" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N60" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O60" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P60" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:17">
+      <x:c r="A61" s="0">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B61" s="2">
+        <x:v>44963</x:v>
+      </x:c>
+      <x:c r="C61" s="0">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E61" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F61" s="3">
+        <x:v>44960.5107814815</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J61" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K61" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L61" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M61" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N61" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O61" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P61" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:17">
+      <x:c r="A62" s="0">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B62" s="2">
+        <x:v>44964</x:v>
+      </x:c>
+      <x:c r="C62" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E62" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F62" s="3">
+        <x:v>44960.5107901273</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J62" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K62" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L62" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N62" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O62" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P62" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:17">
+      <x:c r="A63" s="0">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B63" s="2">
+        <x:v>44965</x:v>
+      </x:c>
+      <x:c r="C63" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E63" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F63" s="3">
+        <x:v>44960.5107989583</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J63" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K63" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L63" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M63" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N63" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O63" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P63" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:17">
+      <x:c r="A64" s="0">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B64" s="2">
+        <x:v>44966</x:v>
+      </x:c>
+      <x:c r="C64" s="0">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E64" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F64" s="3">
+        <x:v>44960.5108077894</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J64" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K64" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L64" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M64" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N64" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O64" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P64" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:17">
+      <x:c r="A65" s="0">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B65" s="2">
+        <x:v>44967</x:v>
+      </x:c>
+      <x:c r="C65" s="0">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E65" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F65" s="3">
+        <x:v>44960.5108164352</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J65" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K65" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L65" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M65" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N65" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O65" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P65" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:17">
+      <x:c r="A66" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B66" s="2">
+        <x:v>44968</x:v>
+      </x:c>
+      <x:c r="C66" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E66" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F66" s="3">
+        <x:v>44960.510825081</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J66" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K66" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L66" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M66" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N66" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O66" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P66" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:17">
+      <x:c r="A67" s="0">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B67" s="2">
+        <x:v>44969</x:v>
+      </x:c>
+      <x:c r="C67" s="0">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E67" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F67" s="3">
+        <x:v>44960.5108337153</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J67" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K67" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L67" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N67" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O67" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P67" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:17">
+      <x:c r="A68" s="0">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B68" s="2">
+        <x:v>44970</x:v>
+      </x:c>
+      <x:c r="C68" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E68" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F68" s="3">
+        <x:v>44960.5108425116</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J68" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K68" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L68" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M68" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N68" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O68" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P68" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:17">
+      <x:c r="A69" s="0">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B69" s="2">
+        <x:v>44971</x:v>
+      </x:c>
+      <x:c r="C69" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E69" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F69" s="3">
+        <x:v>44960.5108513079</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J69" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K69" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L69" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M69" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N69" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O69" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P69" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:17">
+      <x:c r="A70" s="0">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B70" s="2">
+        <x:v>44972</x:v>
+      </x:c>
+      <x:c r="C70" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E70" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F70" s="3">
+        <x:v>44960.5108600694</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J70" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K70" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L70" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M70" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N70" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O70" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P70" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:17">
+      <x:c r="A71" s="0">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B71" s="3">
+        <x:v>44960.5090509259</x:v>
+      </x:c>
+      <x:c r="C71" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E71" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F71" s="3">
+        <x:v>44960.5120658218</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J71" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K71" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L71" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M71" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N71" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O71" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P71" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:17">
+      <x:c r="A72" s="0">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B72" s="2">
+        <x:v>44961</x:v>
+      </x:c>
+      <x:c r="C72" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E72" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F72" s="3">
+        <x:v>44960.5120782407</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J72" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K72" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L72" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M72" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N72" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O72" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P72" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:17">
+      <x:c r="A73" s="0">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B73" s="2">
+        <x:v>44962</x:v>
+      </x:c>
+      <x:c r="C73" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E73" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F73" s="3">
+        <x:v>44960.5120876505</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J73" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K73" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L73" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M73" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N73" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O73" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P73" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:17">
+      <x:c r="A74" s="0">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B74" s="2">
+        <x:v>44963</x:v>
+      </x:c>
+      <x:c r="C74" s="0">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E74" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F74" s="3">
+        <x:v>44960.5120973032</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J74" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K74" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L74" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M74" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N74" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O74" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P74" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:17">
+      <x:c r="A75" s="0">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B75" s="2">
+        <x:v>44964</x:v>
+      </x:c>
+      <x:c r="C75" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E75" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F75" s="3">
+        <x:v>44960.5121058681</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J75" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K75" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L75" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M75" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N75" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O75" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P75" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:17">
+      <x:c r="A76" s="0">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B76" s="2">
+        <x:v>44965</x:v>
+      </x:c>
+      <x:c r="C76" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E76" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F76" s="3">
+        <x:v>44960.5121144329</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J76" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K76" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L76" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M76" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N76" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O76" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P76" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:17">
+      <x:c r="A77" s="0">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B77" s="2">
+        <x:v>44966</x:v>
+      </x:c>
+      <x:c r="C77" s="0">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E77" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F77" s="3">
+        <x:v>44960.5121231134</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J77" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K77" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L77" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M77" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N77" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O77" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P77" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:17">
+      <x:c r="A78" s="0">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B78" s="2">
+        <x:v>44967</x:v>
+      </x:c>
+      <x:c r="C78" s="0">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E78" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F78" s="3">
+        <x:v>44960.512131713</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J78" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K78" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L78" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M78" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N78" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O78" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P78" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:17">
+      <x:c r="A79" s="0">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B79" s="2">
+        <x:v>44968</x:v>
+      </x:c>
+      <x:c r="C79" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E79" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F79" s="3">
+        <x:v>44960.5121403588</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J79" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K79" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L79" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M79" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N79" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O79" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P79" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:17">
+      <x:c r="A80" s="0">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B80" s="2">
+        <x:v>44969</x:v>
+      </x:c>
+      <x:c r="C80" s="0">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E80" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F80" s="3">
+        <x:v>44960.5121490394</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J80" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K80" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L80" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M80" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N80" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O80" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P80" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:17">
+      <x:c r="A81" s="0">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B81" s="2">
+        <x:v>44970</x:v>
+      </x:c>
+      <x:c r="C81" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E81" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F81" s="3">
+        <x:v>44960.5121579051</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I81" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J81" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K81" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L81" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M81" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N81" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O81" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P81" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:17">
+      <x:c r="A82" s="0">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B82" s="2">
+        <x:v>44971</x:v>
+      </x:c>
+      <x:c r="C82" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E82" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F82" s="3">
+        <x:v>44960.5121664352</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H82" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I82" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J82" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K82" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L82" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M82" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N82" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O82" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P82" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:17">
+      <x:c r="A83" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B83" s="2">
+        <x:v>44972</x:v>
+      </x:c>
+      <x:c r="C83" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E83" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F83" s="3">
+        <x:v>44960.5121749653</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I83" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J83" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K83" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L83" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M83" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N83" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O83" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P83" s="0" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
